--- a/www/ig/fhir/core/ValueSet-fr-core-vs-practitioner-role-exercice.xlsx
+++ b/www/ig/fhir/core/ValueSet-fr-core-vs-practitioner-role-exercice.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-20T09:47:43+01:00</t>
+    <t>2024-02-20T11:21:14+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/core/ValueSet-fr-core-vs-practitioner-role-exercice.xlsx
+++ b/www/ig/fhir/core/ValueSet-fr-core-vs-practitioner-role-exercice.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-20T11:21:14+01:00</t>
+    <t>2024-02-20T11:36:44+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/core/ValueSet-fr-core-vs-practitioner-role-exercice.xlsx
+++ b/www/ig/fhir/core/ValueSet-fr-core-vs-practitioner-role-exercice.xlsx
@@ -10,12 +10,19 @@
     <sheet name="Include from TRE_R21-Fonction" r:id="rId4" sheetId="2"/>
     <sheet name="Include from TRE_R96-AutreFon" r:id="rId5" sheetId="3"/>
     <sheet name="Include from TRE_R85-RolePris" r:id="rId6" sheetId="4"/>
+    <sheet name="Include from TRE_R22-GenreAct" r:id="rId7" sheetId="5"/>
+    <sheet name="Include from TRE_R23-ModeExer" r:id="rId8" sheetId="6"/>
+    <sheet name="Include from TRE_R24-TypeActi" r:id="rId9" sheetId="7"/>
+    <sheet name="Include from TRE_R32-StatutHo" r:id="rId10" sheetId="8"/>
+    <sheet name="Include from TRE_R24-TypeActi 2" r:id="rId11" sheetId="9"/>
+    <sheet name="Include from TRE_G05-SousSect" r:id="rId12" sheetId="10"/>
+    <sheet name="Include from TRE_R06-SectionT" r:id="rId13" sheetId="11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="41">
   <si>
     <t>Property</t>
   </si>
@@ -32,7 +39,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -50,7 +57,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -62,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-20T11:36:44+01:00</t>
+    <t>2024-03-25T12:26:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -120,6 +127,24 @@
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/TRE_R85-RolePriseCharge/FHIR/TRE-R85-RolePriseCharge</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R22-GenreActivite/FHIR/TRE-R22-GenreActivite</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R23-ModeExercice/FHIR/TRE-R23-ModeExercice</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R24-TypeActiviteLiberale/FHIR/TRE-R24-TypeActiviteLiberale</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R32-StatutHospitalier/FHIR/TRE-R32-StatutHospitalier</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_G05-SousSectionTableauCNOP/FHIR/TRE-G05-SousSectionTableauCNOP</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R06-SectionTableauCNOP/FHIR/TRE-R06-SectionTableauCNOP</t>
   </si>
 </sst>
 </file>
@@ -392,6 +417,92 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B4"/>
@@ -519,4 +630,219 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/www/ig/fhir/core/ValueSet-fr-core-vs-practitioner-role-exercice.xlsx
+++ b/www/ig/fhir/core/ValueSet-fr-core-vs-practitioner-role-exercice.xlsx
@@ -39,7 +39,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T11:49:14+02:00</t>
+    <t>2024-09-04T10:06:33+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Interop'Santé (http://interopsante.org/)</t>
   </si>
   <si>
-    <t>InteropSanté (fhir@interopsante.org(WORK))</t>
+    <t>InteropSanté (fhir@interopsante.org(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
